--- a/images/20230619/cm.xlsx
+++ b/images/20230619/cm.xlsx
@@ -9115,8 +9115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
